--- a/District_health_demographic_dataset.xlsx
+++ b/District_health_demographic_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bd health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58719D16-61F1-4B9B-8C01-BA2B3F6D0718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDD4063-B6E2-44A2-8A85-BE21B4366AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_description" sheetId="25" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="234">
   <si>
     <t>Barguna</t>
   </si>
@@ -733,82 +733,10 @@
     <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2016</t>
   </si>
   <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2017</t>
+    <t>Numerical</t>
   </si>
   <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2018</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2019</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2020</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2021</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2022</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2023</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2024</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2025</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2026</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2027</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2028</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2029</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2030</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2031</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2032</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2033</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2034</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2035</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2036</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2037</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2038</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2039</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2040</t>
-  </si>
-  <si>
-    <t>Bangladesh District Level Socio-demographic and Health Care Utilization Indicators, 2041</t>
-  </si>
-  <si>
-    <t>Numerical</t>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -832,12 +760,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1264,9 +1194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32EF1BC-17DA-4299-AC0A-6030502929AE}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,6 +1233,9 @@
       <c r="B2" t="s">
         <v>166</v>
       </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
       <c r="E2" t="s">
         <v>228</v>
       </c>
@@ -1317,6 +1250,9 @@
       <c r="B3" t="s">
         <v>167</v>
       </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
       <c r="E3" t="s">
         <v>228</v>
       </c>
@@ -1331,6 +1267,9 @@
       <c r="B4" t="s">
         <v>168</v>
       </c>
+      <c r="D4" t="s">
+        <v>233</v>
+      </c>
       <c r="E4" t="s">
         <v>228</v>
       </c>
@@ -1346,7 +1285,7 @@
         <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E5" t="s">
         <v>228</v>
@@ -1363,7 +1302,7 @@
         <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
         <v>228</v>
@@ -1380,7 +1319,7 @@
         <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
         <v>228</v>
@@ -1400,7 +1339,7 @@
         <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
         <v>230</v>
@@ -1420,7 +1359,7 @@
         <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
         <v>231</v>
@@ -1437,10 +1376,10 @@
         <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1454,10 +1393,10 @@
         <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,10 +1410,10 @@
         <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,10 +1427,10 @@
         <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,10 +1444,10 @@
         <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1522,10 +1461,10 @@
         <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1539,10 +1478,10 @@
         <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1556,10 +1495,10 @@
         <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1573,10 +1512,10 @@
         <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1590,10 +1529,10 @@
         <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1607,10 +1546,10 @@
         <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1624,10 +1563,10 @@
         <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E21" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1641,10 +1580,10 @@
         <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1658,10 +1597,10 @@
         <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E23" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1675,10 +1614,10 @@
         <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1692,10 +1631,10 @@
         <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1709,10 +1648,10 @@
         <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E26" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1726,10 +1665,10 @@
         <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1743,10 +1682,10 @@
         <v>176</v>
       </c>
       <c r="D28" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1760,10 +1699,10 @@
         <v>176</v>
       </c>
       <c r="D29" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E29" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1777,10 +1716,10 @@
         <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E30" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1794,10 +1733,10 @@
         <v>176</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E31" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1811,10 +1750,10 @@
         <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E32" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1828,10 +1767,10 @@
         <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E33" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1845,10 +1784,10 @@
         <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E34" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1866,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0C04E1-E31D-4A50-9847-637F463E5C57}">
   <dimension ref="A1:F911"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20117,7 +20056,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
@@ -22804,14 +22743,16 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/District_health_demographic_dataset.xlsx
+++ b/District_health_demographic_dataset.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bd health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDD4063-B6E2-44A2-8A85-BE21B4366AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F9B0E-E27F-4BCE-9496-AECC52922495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data_description" sheetId="25" r:id="rId1"/>
-    <sheet name="hospital_equipments" sheetId="23" r:id="rId2"/>
-    <sheet name="sociodemographic" sheetId="24" r:id="rId3"/>
-    <sheet name="child_development" sheetId="17" r:id="rId4"/>
+    <sheet name="readme" sheetId="26" r:id="rId1"/>
+    <sheet name="data_description" sheetId="25" r:id="rId2"/>
+    <sheet name="hospital_equipments" sheetId="23" r:id="rId3"/>
+    <sheet name="sociodemographic" sheetId="24" r:id="rId4"/>
+    <sheet name="child_development" sheetId="17" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hospital_equipments!$A$1:$F$911</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">hospital_equipments!$A$1:$F$911</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="246">
   <si>
     <t>Barguna</t>
   </si>
@@ -738,6 +739,42 @@
   <si>
     <t>Text</t>
   </si>
+  <si>
+    <t>Author information</t>
+  </si>
+  <si>
+    <t>Fahim Hassan, Manager, Ministry of Advanced Education, Government of Alberta, email: fahim2@ualberta.ca</t>
+  </si>
+  <si>
+    <t>Shehreen Hossain, Health Data Analyst, Alberta Bone and Joint Health, email: hossain4@ualberta.ca</t>
+  </si>
+  <si>
+    <t>Md. Mohib-Ul-Haque Khan, Senior Policy Analyst, Government of Alberta, email: mdmohibu@ualberta.ca</t>
+  </si>
+  <si>
+    <t>Geographic location of data: Bangladesh</t>
+  </si>
+  <si>
+    <t>About dataset</t>
+  </si>
+  <si>
+    <t>Title of Dataset: District level health system data for Bangladesh</t>
+  </si>
+  <si>
+    <t>This dataset contains data on Bangladesh's social, demographic, and health system at the District level. There are a total of 64 districts in Bangladesh.</t>
+  </si>
+  <si>
+    <t>The primary source of the socio-demographic and health care utilization indicators is from Bangladesh Maternal Mortality and Health Care Survey (BMMS), 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The poverty rate was collected from a Preliminary Report on Household Income and Expenditure Survey 2016 by Bangladesh Bureau of Statistics. </t>
+  </si>
+  <si>
+    <t>The hospital equipment related data was collected from the website of Directorate General of Health Systems, Bnagladesh. These data were collected on December 2019.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Though all these data were open source previously, they were in pdf format and not easily accessible. </t>
+  </si>
 </sst>
 </file>
 
@@ -791,12 +828,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -813,7 +856,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -852,6 +895,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1191,12 +1235,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AEF168-8DFA-413B-BEFA-8ECDD4ACCF4B}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="177" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32EF1BC-17DA-4299-AC0A-6030502929AE}">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,12 +1924,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0C04E1-E31D-4A50-9847-637F463E5C57}">
   <dimension ref="A1:F911"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20045,7 +20168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A266ED70-C85B-4E53-9E41-FDB69C034ADD}">
   <dimension ref="A1:M65"/>
   <sheetViews>
@@ -22738,7 +22861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:P65"/>
   <sheetViews>

--- a/District_health_demographic_dataset.xlsx
+++ b/District_health_demographic_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bd health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F9B0E-E27F-4BCE-9496-AECC52922495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F6D212-D497-4BAE-BDF8-487E5A025C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="26" r:id="rId1"/>
@@ -22,12 +22,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">hospital_equipments!$A$1:$F$911</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="246">
   <si>
     <t>Barguna</t>
   </si>
@@ -780,7 +790,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,6 +841,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -851,12 +872,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -896,8 +918,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{5E18061B-9A6A-4FE3-B1C6-DBEA5FC5F89A}"/>
@@ -1236,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AEF168-8DFA-413B-BEFA-8ECDD4ACCF4B}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,51 +1284,51 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>245</v>
       </c>
     </row>
@@ -1926,10 +1950,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0C04E1-E31D-4A50-9847-637F463E5C57}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +1988,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -1983,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -2003,7 +2028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -2023,7 +2048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -2043,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -2063,7 +2088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -2083,7 +2108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -2103,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -2123,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -2143,7 +2168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -2163,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -2183,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -2203,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -2223,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -2243,7 +2268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -2263,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
@@ -2283,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -2303,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
@@ -2323,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -2343,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -2363,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -2383,7 +2408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -2403,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
@@ -2423,7 +2448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -2443,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>89</v>
       </c>
@@ -2463,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
@@ -2483,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
@@ -2503,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
@@ -2523,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>90</v>
       </c>
@@ -2543,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -2563,7 +2588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -2583,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
@@ -2603,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
@@ -2623,7 +2648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
@@ -2643,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
@@ -2663,7 +2688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
@@ -2683,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
@@ -2703,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
@@ -2723,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
@@ -2743,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -2763,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2783,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -2803,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -2823,7 +2848,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -2839,11 +2864,12 @@
       <c r="E45" s="5">
         <v>2</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="5">
+        <f>D45-E45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
@@ -2859,11 +2885,12 @@
       <c r="E46" s="5">
         <v>2</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="5">
+        <f t="shared" ref="F46:F52" si="0">D46-E46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
@@ -2879,11 +2906,12 @@
       <c r="E47" s="5">
         <v>0</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
@@ -2899,11 +2927,12 @@
       <c r="E48" s="5">
         <v>25</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
@@ -2919,11 +2948,12 @@
       <c r="E49" s="5">
         <v>1</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
@@ -2939,11 +2969,12 @@
       <c r="E50" s="5">
         <v>2</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
@@ -2959,11 +2990,12 @@
       <c r="E51" s="5">
         <v>0</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>91</v>
       </c>
@@ -2979,11 +3011,12 @@
       <c r="E52" s="5">
         <v>2</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -3003,7 +3036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
@@ -3019,11 +3052,12 @@
       <c r="E54" s="5">
         <v>0</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="5">
+        <f t="shared" ref="F54:F56" si="1">D54-E54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>91</v>
       </c>
@@ -3039,11 +3073,12 @@
       <c r="E55" s="5">
         <v>0</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>91</v>
       </c>
@@ -3059,11 +3094,12 @@
       <c r="E56" s="5">
         <v>0</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>91</v>
       </c>
@@ -3083,7 +3119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>93</v>
       </c>
@@ -3103,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>93</v>
       </c>
@@ -3123,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
@@ -3143,7 +3179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>93</v>
       </c>
@@ -3163,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>93</v>
       </c>
@@ -3183,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>93</v>
       </c>
@@ -3203,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>93</v>
       </c>
@@ -3223,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>93</v>
       </c>
@@ -3243,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>93</v>
       </c>
@@ -3263,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>93</v>
       </c>
@@ -3283,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>93</v>
       </c>
@@ -3303,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>93</v>
       </c>
@@ -3323,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>93</v>
       </c>
@@ -3343,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>93</v>
       </c>
@@ -3363,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
@@ -3383,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -3403,7 +3439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>94</v>
       </c>
@@ -3423,7 +3459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>94</v>
       </c>
@@ -3443,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>94</v>
       </c>
@@ -3463,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -3483,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
@@ -3503,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>94</v>
       </c>
@@ -3523,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>94</v>
       </c>
@@ -3543,7 +3579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>94</v>
       </c>
@@ -3563,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
@@ -3583,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>94</v>
       </c>
@@ -3603,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -3623,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
@@ -3643,7 +3679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
@@ -3663,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -3683,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
@@ -3703,7 +3739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>95</v>
       </c>
@@ -3723,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -3743,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -3763,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>95</v>
       </c>
@@ -3783,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -3803,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -3823,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -3843,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -3863,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -3883,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -3903,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>95</v>
       </c>
@@ -3923,7 +3959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
@@ -3943,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>96</v>
       </c>
@@ -3963,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>96</v>
       </c>
@@ -3983,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>96</v>
       </c>
@@ -4003,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>96</v>
       </c>
@@ -4023,7 +4059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>96</v>
       </c>
@@ -4043,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>96</v>
       </c>
@@ -4063,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>96</v>
       </c>
@@ -4083,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>96</v>
       </c>
@@ -4103,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>96</v>
       </c>
@@ -4123,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>96</v>
       </c>
@@ -4143,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>96</v>
       </c>
@@ -4163,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>96</v>
       </c>
@@ -4183,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>96</v>
       </c>
@@ -4203,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>97</v>
       </c>
@@ -4223,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>97</v>
       </c>
@@ -4243,7 +4279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>97</v>
       </c>
@@ -4263,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>97</v>
       </c>
@@ -4283,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>97</v>
       </c>
@@ -4303,7 +4339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>97</v>
       </c>
@@ -4323,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>97</v>
       </c>
@@ -4343,7 +4379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>97</v>
       </c>
@@ -4363,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>97</v>
       </c>
@@ -4383,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>97</v>
       </c>
@@ -4403,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>97</v>
       </c>
@@ -4423,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>97</v>
       </c>
@@ -4443,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>97</v>
       </c>
@@ -4463,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>97</v>
       </c>
@@ -4483,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>98</v>
       </c>
@@ -4503,7 +4539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>98</v>
       </c>
@@ -4523,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>98</v>
       </c>
@@ -4543,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>98</v>
       </c>
@@ -4563,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>98</v>
       </c>
@@ -4583,7 +4619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>98</v>
       </c>
@@ -4603,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>98</v>
       </c>
@@ -4623,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>98</v>
       </c>
@@ -4643,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>98</v>
       </c>
@@ -4663,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>98</v>
       </c>
@@ -4683,7 +4719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>98</v>
       </c>
@@ -4703,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>98</v>
       </c>
@@ -4723,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>98</v>
       </c>
@@ -4743,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>98</v>
       </c>
@@ -4763,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>99</v>
       </c>
@@ -4783,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>99</v>
       </c>
@@ -4803,7 +4839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>99</v>
       </c>
@@ -4823,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>99</v>
       </c>
@@ -4843,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>99</v>
       </c>
@@ -4863,7 +4899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>99</v>
       </c>
@@ -4883,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>99</v>
       </c>
@@ -4903,7 +4939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>99</v>
       </c>
@@ -4923,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>99</v>
       </c>
@@ -4943,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>99</v>
       </c>
@@ -4963,7 +4999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>99</v>
       </c>
@@ -4983,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>99</v>
       </c>
@@ -5003,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>99</v>
       </c>
@@ -5023,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>99</v>
       </c>
@@ -5043,7 +5079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>100</v>
       </c>
@@ -5063,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>100</v>
       </c>
@@ -5083,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>100</v>
       </c>
@@ -5103,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>100</v>
       </c>
@@ -5123,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>100</v>
       </c>
@@ -5143,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>100</v>
       </c>
@@ -5163,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>100</v>
       </c>
@@ -5183,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>100</v>
       </c>
@@ -5203,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>100</v>
       </c>
@@ -5223,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>100</v>
       </c>
@@ -5243,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>100</v>
       </c>
@@ -5263,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>100</v>
       </c>
@@ -5283,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>100</v>
       </c>
@@ -5303,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>100</v>
       </c>
@@ -5323,7 +5359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>101</v>
       </c>
@@ -5343,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>101</v>
       </c>
@@ -5363,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>101</v>
       </c>
@@ -5383,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>101</v>
       </c>
@@ -5403,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>101</v>
       </c>
@@ -5423,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>101</v>
       </c>
@@ -5443,7 +5479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>101</v>
       </c>
@@ -5463,7 +5499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>101</v>
       </c>
@@ -5483,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>101</v>
       </c>
@@ -5503,7 +5539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>101</v>
       </c>
@@ -5523,7 +5559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>101</v>
       </c>
@@ -5543,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>101</v>
       </c>
@@ -5563,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>101</v>
       </c>
@@ -5583,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>101</v>
       </c>
@@ -5603,7 +5639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>102</v>
       </c>
@@ -5623,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>102</v>
       </c>
@@ -5643,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>102</v>
       </c>
@@ -5663,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>102</v>
       </c>
@@ -5683,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>102</v>
       </c>
@@ -5703,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>102</v>
       </c>
@@ -5723,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>102</v>
       </c>
@@ -5743,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>102</v>
       </c>
@@ -5763,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>102</v>
       </c>
@@ -5783,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>102</v>
       </c>
@@ -5803,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>102</v>
       </c>
@@ -5823,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>102</v>
       </c>
@@ -5843,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>102</v>
       </c>
@@ -5863,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>102</v>
       </c>
@@ -5883,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>103</v>
       </c>
@@ -5903,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>103</v>
       </c>
@@ -5923,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>103</v>
       </c>
@@ -5943,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>103</v>
       </c>
@@ -5963,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>103</v>
       </c>
@@ -5983,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>103</v>
       </c>
@@ -6003,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>103</v>
       </c>
@@ -6023,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>103</v>
       </c>
@@ -6043,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>103</v>
       </c>
@@ -6063,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>103</v>
       </c>
@@ -6083,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>103</v>
       </c>
@@ -6103,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>103</v>
       </c>
@@ -6123,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>103</v>
       </c>
@@ -6143,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>103</v>
       </c>
@@ -6163,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>104</v>
       </c>
@@ -6183,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>104</v>
       </c>
@@ -6203,7 +6239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>104</v>
       </c>
@@ -6223,7 +6259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>104</v>
       </c>
@@ -6243,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>104</v>
       </c>
@@ -6263,7 +6299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>104</v>
       </c>
@@ -6283,7 +6319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>104</v>
       </c>
@@ -6303,7 +6339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>104</v>
       </c>
@@ -6323,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>104</v>
       </c>
@@ -6343,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>104</v>
       </c>
@@ -6363,7 +6399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>104</v>
       </c>
@@ -6383,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>104</v>
       </c>
@@ -6403,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>104</v>
       </c>
@@ -6423,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>104</v>
       </c>
@@ -6443,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>105</v>
       </c>
@@ -6463,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>105</v>
       </c>
@@ -6483,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>105</v>
       </c>
@@ -6503,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>105</v>
       </c>
@@ -6523,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>105</v>
       </c>
@@ -6543,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>105</v>
       </c>
@@ -6563,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>105</v>
       </c>
@@ -6583,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>105</v>
       </c>
@@ -6603,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>105</v>
       </c>
@@ -6623,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>105</v>
       </c>
@@ -6643,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>105</v>
       </c>
@@ -6663,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>105</v>
       </c>
@@ -6683,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>105</v>
       </c>
@@ -6703,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>105</v>
       </c>
@@ -7003,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>107</v>
       </c>
@@ -7023,7 +7059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>107</v>
       </c>
@@ -7043,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>107</v>
       </c>
@@ -7063,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>107</v>
       </c>
@@ -7083,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>107</v>
       </c>
@@ -7103,7 +7139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>107</v>
       </c>
@@ -7123,7 +7159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>107</v>
       </c>
@@ -7143,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>107</v>
       </c>
@@ -7163,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>107</v>
       </c>
@@ -7183,7 +7219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>107</v>
       </c>
@@ -7203,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>107</v>
       </c>
@@ -7223,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>107</v>
       </c>
@@ -7243,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>107</v>
       </c>
@@ -7263,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>107</v>
       </c>
@@ -7283,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>108</v>
       </c>
@@ -7303,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>108</v>
       </c>
@@ -7323,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>108</v>
       </c>
@@ -7343,7 +7379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>108</v>
       </c>
@@ -7363,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>108</v>
       </c>
@@ -7383,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>108</v>
       </c>
@@ -7403,7 +7439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>108</v>
       </c>
@@ -7423,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>108</v>
       </c>
@@ -7443,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>108</v>
       </c>
@@ -7463,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>108</v>
       </c>
@@ -7483,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>108</v>
       </c>
@@ -7503,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>108</v>
       </c>
@@ -7523,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>108</v>
       </c>
@@ -7543,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>108</v>
       </c>
@@ -7563,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>109</v>
       </c>
@@ -7583,7 +7619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>109</v>
       </c>
@@ -7603,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>109</v>
       </c>
@@ -7623,7 +7659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>109</v>
       </c>
@@ -7643,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>109</v>
       </c>
@@ -7663,7 +7699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>109</v>
       </c>
@@ -7683,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>109</v>
       </c>
@@ -7703,7 +7739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>109</v>
       </c>
@@ -7723,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>109</v>
       </c>
@@ -7743,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>109</v>
       </c>
@@ -7763,7 +7799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>109</v>
       </c>
@@ -7783,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>109</v>
       </c>
@@ -7803,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>109</v>
       </c>
@@ -7823,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>109</v>
       </c>
@@ -7843,7 +7879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>110</v>
       </c>
@@ -7863,7 +7899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>110</v>
       </c>
@@ -7883,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>110</v>
       </c>
@@ -7903,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>110</v>
       </c>
@@ -7923,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>110</v>
       </c>
@@ -7943,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>110</v>
       </c>
@@ -7963,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>110</v>
       </c>
@@ -7983,7 +8019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>110</v>
       </c>
@@ -8003,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>110</v>
       </c>
@@ -8023,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>110</v>
       </c>
@@ -8043,7 +8079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>110</v>
       </c>
@@ -8063,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>110</v>
       </c>
@@ -8083,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>110</v>
       </c>
@@ -8103,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>110</v>
       </c>
@@ -8123,7 +8159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>111</v>
       </c>
@@ -8143,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>111</v>
       </c>
@@ -8163,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>111</v>
       </c>
@@ -8183,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>111</v>
       </c>
@@ -8203,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>111</v>
       </c>
@@ -8223,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>111</v>
       </c>
@@ -8243,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>111</v>
       </c>
@@ -8263,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>111</v>
       </c>
@@ -8283,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>111</v>
       </c>
@@ -8303,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>111</v>
       </c>
@@ -8323,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>111</v>
       </c>
@@ -8343,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>111</v>
       </c>
@@ -8363,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>111</v>
       </c>
@@ -8383,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>111</v>
       </c>
@@ -8403,7 +8439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>112</v>
       </c>
@@ -8423,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>112</v>
       </c>
@@ -8443,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>112</v>
       </c>
@@ -8463,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>112</v>
       </c>
@@ -8483,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>112</v>
       </c>
@@ -8503,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>112</v>
       </c>
@@ -8523,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>112</v>
       </c>
@@ -8543,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>112</v>
       </c>
@@ -8563,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>112</v>
       </c>
@@ -8583,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>112</v>
       </c>
@@ -8603,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>112</v>
       </c>
@@ -8623,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>112</v>
       </c>
@@ -8643,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>112</v>
       </c>
@@ -8663,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>112</v>
       </c>
@@ -8683,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>113</v>
       </c>
@@ -8703,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>113</v>
       </c>
@@ -8723,7 +8759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>113</v>
       </c>
@@ -8743,7 +8779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>113</v>
       </c>
@@ -8763,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>113</v>
       </c>
@@ -8783,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>113</v>
       </c>
@@ -8803,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>113</v>
       </c>
@@ -8823,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>113</v>
       </c>
@@ -8843,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>113</v>
       </c>
@@ -8863,7 +8899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>113</v>
       </c>
@@ -8883,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>113</v>
       </c>
@@ -8903,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>113</v>
       </c>
@@ -8923,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>113</v>
       </c>
@@ -8943,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>113</v>
       </c>
@@ -8963,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>114</v>
       </c>
@@ -8983,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>114</v>
       </c>
@@ -9003,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>114</v>
       </c>
@@ -9023,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>114</v>
       </c>
@@ -9043,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>114</v>
       </c>
@@ -9063,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>114</v>
       </c>
@@ -9083,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>114</v>
       </c>
@@ -9103,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>114</v>
       </c>
@@ -9123,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>114</v>
       </c>
@@ -9143,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>114</v>
       </c>
@@ -9163,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>114</v>
       </c>
@@ -9183,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>114</v>
       </c>
@@ -9203,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>114</v>
       </c>
@@ -9223,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>114</v>
       </c>
@@ -9243,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>115</v>
       </c>
@@ -9263,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>115</v>
       </c>
@@ -9283,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>115</v>
       </c>
@@ -9303,7 +9339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>115</v>
       </c>
@@ -9323,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>115</v>
       </c>
@@ -9343,7 +9379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>115</v>
       </c>
@@ -9363,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>115</v>
       </c>
@@ -9383,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>115</v>
       </c>
@@ -9403,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>115</v>
       </c>
@@ -9423,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>115</v>
       </c>
@@ -9443,7 +9479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>115</v>
       </c>
@@ -9463,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>115</v>
       </c>
@@ -9483,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>115</v>
       </c>
@@ -9503,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>115</v>
       </c>
@@ -9523,7 +9559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>116</v>
       </c>
@@ -9543,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>116</v>
       </c>
@@ -9563,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>116</v>
       </c>
@@ -9583,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>116</v>
       </c>
@@ -9603,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>116</v>
       </c>
@@ -9623,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>116</v>
       </c>
@@ -9643,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>116</v>
       </c>
@@ -9663,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>116</v>
       </c>
@@ -9683,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>116</v>
       </c>
@@ -9703,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>116</v>
       </c>
@@ -9723,7 +9759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>116</v>
       </c>
@@ -9743,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>116</v>
       </c>
@@ -9763,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>116</v>
       </c>
@@ -9783,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>116</v>
       </c>
@@ -9803,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>117</v>
       </c>
@@ -9823,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>117</v>
       </c>
@@ -9843,7 +9879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>117</v>
       </c>
@@ -9863,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>117</v>
       </c>
@@ -9883,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>117</v>
       </c>
@@ -9903,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>117</v>
       </c>
@@ -9923,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>117</v>
       </c>
@@ -9943,7 +9979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>117</v>
       </c>
@@ -9963,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>117</v>
       </c>
@@ -9983,7 +10019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>117</v>
       </c>
@@ -10003,7 +10039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>117</v>
       </c>
@@ -10023,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>117</v>
       </c>
@@ -10043,7 +10079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>117</v>
       </c>
@@ -10063,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>117</v>
       </c>
@@ -10083,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>118</v>
       </c>
@@ -10103,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>118</v>
       </c>
@@ -10123,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>118</v>
       </c>
@@ -10143,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>118</v>
       </c>
@@ -10163,7 +10199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>118</v>
       </c>
@@ -10183,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>118</v>
       </c>
@@ -10203,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>118</v>
       </c>
@@ -10223,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>118</v>
       </c>
@@ -10243,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>118</v>
       </c>
@@ -10263,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>118</v>
       </c>
@@ -10283,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>118</v>
       </c>
@@ -10303,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>118</v>
       </c>
@@ -10323,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>118</v>
       </c>
@@ -10343,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>118</v>
       </c>
@@ -10363,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>119</v>
       </c>
@@ -10383,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>119</v>
       </c>
@@ -10403,7 +10439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>119</v>
       </c>
@@ -10423,7 +10459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>119</v>
       </c>
@@ -10443,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>119</v>
       </c>
@@ -10463,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>119</v>
       </c>
@@ -10483,7 +10519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>119</v>
       </c>
@@ -10503,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>119</v>
       </c>
@@ -10523,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>119</v>
       </c>
@@ -10543,7 +10579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>119</v>
       </c>
@@ -10563,7 +10599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>119</v>
       </c>
@@ -10583,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>119</v>
       </c>
@@ -10603,7 +10639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>119</v>
       </c>
@@ -10623,7 +10659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>119</v>
       </c>
@@ -10643,7 +10679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>120</v>
       </c>
@@ -10663,7 +10699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>120</v>
       </c>
@@ -10683,7 +10719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>120</v>
       </c>
@@ -10703,7 +10739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>120</v>
       </c>
@@ -10723,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>120</v>
       </c>
@@ -10743,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>120</v>
       </c>
@@ -10763,7 +10799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>120</v>
       </c>
@@ -10783,7 +10819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>120</v>
       </c>
@@ -10803,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>120</v>
       </c>
@@ -10823,7 +10859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>120</v>
       </c>
@@ -10843,7 +10879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>120</v>
       </c>
@@ -10863,7 +10899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>120</v>
       </c>
@@ -10883,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>120</v>
       </c>
@@ -10903,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>120</v>
       </c>
@@ -10923,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>121</v>
       </c>
@@ -10943,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>121</v>
       </c>
@@ -10963,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>121</v>
       </c>
@@ -10983,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>121</v>
       </c>
@@ -11003,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>121</v>
       </c>
@@ -11023,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>121</v>
       </c>
@@ -11043,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>121</v>
       </c>
@@ -11063,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>121</v>
       </c>
@@ -11083,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>121</v>
       </c>
@@ -11103,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>121</v>
       </c>
@@ -11123,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>121</v>
       </c>
@@ -11143,7 +11179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>121</v>
       </c>
@@ -11163,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>121</v>
       </c>
@@ -11183,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>121</v>
       </c>
@@ -11203,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>122</v>
       </c>
@@ -11223,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>122</v>
       </c>
@@ -11243,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>122</v>
       </c>
@@ -11263,7 +11299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>122</v>
       </c>
@@ -11283,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>122</v>
       </c>
@@ -11303,7 +11339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>122</v>
       </c>
@@ -11323,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>122</v>
       </c>
@@ -11343,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>122</v>
       </c>
@@ -11363,7 +11399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>122</v>
       </c>
@@ -11383,7 +11419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>122</v>
       </c>
@@ -11403,7 +11439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>122</v>
       </c>
@@ -11423,7 +11459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>122</v>
       </c>
@@ -11443,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>122</v>
       </c>
@@ -11463,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>122</v>
       </c>
@@ -11483,7 +11519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>123</v>
       </c>
@@ -11503,7 +11539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>123</v>
       </c>
@@ -11523,7 +11559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>123</v>
       </c>
@@ -11543,7 +11579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>123</v>
       </c>
@@ -11563,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>123</v>
       </c>
@@ -11583,7 +11619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>123</v>
       </c>
@@ -11603,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>123</v>
       </c>
@@ -11623,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>123</v>
       </c>
@@ -11643,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>123</v>
       </c>
@@ -11663,7 +11699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>123</v>
       </c>
@@ -11683,7 +11719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>123</v>
       </c>
@@ -11703,7 +11739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>123</v>
       </c>
@@ -11723,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>123</v>
       </c>
@@ -11743,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>123</v>
       </c>
@@ -11763,7 +11799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>124</v>
       </c>
@@ -11783,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>124</v>
       </c>
@@ -11803,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>124</v>
       </c>
@@ -11823,7 +11859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>124</v>
       </c>
@@ -11843,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>124</v>
       </c>
@@ -11863,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>124</v>
       </c>
@@ -11883,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>124</v>
       </c>
@@ -11903,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>124</v>
       </c>
@@ -11923,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>124</v>
       </c>
@@ -11943,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>124</v>
       </c>
@@ -11963,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>124</v>
       </c>
@@ -11983,7 +12019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>124</v>
       </c>
@@ -12003,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>124</v>
       </c>
@@ -12023,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>124</v>
       </c>
@@ -12043,7 +12079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>125</v>
       </c>
@@ -12053,17 +12089,17 @@
       <c r="C506" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D506" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E506" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F506" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D506" s="5">
+        <v>2</v>
+      </c>
+      <c r="E506" s="5">
+        <v>2</v>
+      </c>
+      <c r="F506" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>125</v>
       </c>
@@ -12073,17 +12109,17 @@
       <c r="C507" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D507" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E507" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F507" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D507" s="5">
+        <v>9</v>
+      </c>
+      <c r="E507" s="5">
+        <v>3</v>
+      </c>
+      <c r="F507" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>125</v>
       </c>
@@ -12093,17 +12129,17 @@
       <c r="C508" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D508" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E508" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F508" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D508" s="5">
+        <v>3</v>
+      </c>
+      <c r="E508" s="5">
+        <v>1</v>
+      </c>
+      <c r="F508" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>125</v>
       </c>
@@ -12113,17 +12149,17 @@
       <c r="C509" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D509" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E509" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F509" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D509" s="5">
+        <v>0</v>
+      </c>
+      <c r="E509" s="5">
+        <v>0</v>
+      </c>
+      <c r="F509" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>125</v>
       </c>
@@ -12133,17 +12169,17 @@
       <c r="C510" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D510" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E510" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F510" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D510" s="5">
+        <v>32</v>
+      </c>
+      <c r="E510" s="5">
+        <v>28</v>
+      </c>
+      <c r="F510" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>125</v>
       </c>
@@ -12153,17 +12189,17 @@
       <c r="C511" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D511" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E511" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F511" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D511" s="5">
+        <v>7</v>
+      </c>
+      <c r="E511" s="5">
+        <v>2</v>
+      </c>
+      <c r="F511" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>125</v>
       </c>
@@ -12173,17 +12209,17 @@
       <c r="C512" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D512" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E512" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F512" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D512" s="5">
+        <v>7</v>
+      </c>
+      <c r="E512" s="5">
+        <v>7</v>
+      </c>
+      <c r="F512" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>125</v>
       </c>
@@ -12193,17 +12229,17 @@
       <c r="C513" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D513" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E513" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F513" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D513" s="5">
+        <v>0</v>
+      </c>
+      <c r="E513" s="5">
+        <v>0</v>
+      </c>
+      <c r="F513" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>125</v>
       </c>
@@ -12213,17 +12249,17 @@
       <c r="C514" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D514" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E514" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F514" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D514" s="5">
+        <v>6</v>
+      </c>
+      <c r="E514" s="5">
+        <v>1</v>
+      </c>
+      <c r="F514" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>125</v>
       </c>
@@ -12233,17 +12269,17 @@
       <c r="C515" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D515" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E515" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F515" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D515" s="5">
+        <v>2</v>
+      </c>
+      <c r="E515" s="5">
+        <v>1</v>
+      </c>
+      <c r="F515" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>125</v>
       </c>
@@ -12253,17 +12289,17 @@
       <c r="C516" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D516" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E516" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F516" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D516" s="5">
+        <v>2</v>
+      </c>
+      <c r="E516" s="5">
+        <v>2</v>
+      </c>
+      <c r="F516" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>125</v>
       </c>
@@ -12273,17 +12309,17 @@
       <c r="C517" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D517" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E517" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F517" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D517" s="5">
+        <v>0</v>
+      </c>
+      <c r="E517" s="5">
+        <v>0</v>
+      </c>
+      <c r="F517" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>125</v>
       </c>
@@ -12293,17 +12329,17 @@
       <c r="C518" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D518" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E518" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F518" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D518" s="5">
+        <v>0</v>
+      </c>
+      <c r="E518" s="5">
+        <v>0</v>
+      </c>
+      <c r="F518" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>125</v>
       </c>
@@ -12313,17 +12349,17 @@
       <c r="C519" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D519" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E519" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F519" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D519" s="5">
+        <v>5</v>
+      </c>
+      <c r="E519" s="5">
+        <v>2</v>
+      </c>
+      <c r="F519" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>126</v>
       </c>
@@ -12343,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>126</v>
       </c>
@@ -12363,7 +12399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>126</v>
       </c>
@@ -12383,7 +12419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>126</v>
       </c>
@@ -12403,7 +12439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>126</v>
       </c>
@@ -12423,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>126</v>
       </c>
@@ -12443,7 +12479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>126</v>
       </c>
@@ -12463,7 +12499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>126</v>
       </c>
@@ -12483,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>126</v>
       </c>
@@ -12503,7 +12539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>126</v>
       </c>
@@ -12523,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>126</v>
       </c>
@@ -12543,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>126</v>
       </c>
@@ -12563,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>126</v>
       </c>
@@ -12583,7 +12619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>126</v>
       </c>
@@ -12603,7 +12639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>127</v>
       </c>
@@ -12623,7 +12659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>127</v>
       </c>
@@ -12643,7 +12679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>127</v>
       </c>
@@ -12663,7 +12699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>127</v>
       </c>
@@ -12683,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>127</v>
       </c>
@@ -12703,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>127</v>
       </c>
@@ -12723,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>127</v>
       </c>
@@ -12743,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>127</v>
       </c>
@@ -12763,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>127</v>
       </c>
@@ -12783,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>127</v>
       </c>
@@ -12803,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>127</v>
       </c>
@@ -12823,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>127</v>
       </c>
@@ -12843,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>127</v>
       </c>
@@ -12863,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>127</v>
       </c>
@@ -12883,7 +12919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>128</v>
       </c>
@@ -12899,11 +12935,11 @@
       <c r="E548" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F548" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F548" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>128</v>
       </c>
@@ -12919,11 +12955,11 @@
       <c r="E549" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F549" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F549" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>128</v>
       </c>
@@ -12936,14 +12972,14 @@
       <c r="D550" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E550" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F550" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E550" s="5">
+        <v>11</v>
+      </c>
+      <c r="F550" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>128</v>
       </c>
@@ -12953,17 +12989,17 @@
       <c r="C551" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D551" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E551" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F551" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D551" s="5">
+        <v>50</v>
+      </c>
+      <c r="E551" s="5">
+        <v>50</v>
+      </c>
+      <c r="F551" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>128</v>
       </c>
@@ -12973,17 +13009,17 @@
       <c r="C552" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D552" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E552" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F552" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D552" s="5">
+        <v>63</v>
+      </c>
+      <c r="E552" s="5">
+        <v>50</v>
+      </c>
+      <c r="F552" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>128</v>
       </c>
@@ -12993,8 +13029,8 @@
       <c r="C553" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D553" s="5" t="s">
-        <v>92</v>
+      <c r="D553" s="5">
+        <v>12</v>
       </c>
       <c r="E553" s="5" t="s">
         <v>92</v>
@@ -13003,7 +13039,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>128</v>
       </c>
@@ -13013,17 +13049,17 @@
       <c r="C554" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D554" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E554" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F554" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D554" s="5">
+        <v>25</v>
+      </c>
+      <c r="E554" s="5">
+        <v>25</v>
+      </c>
+      <c r="F554" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>128</v>
       </c>
@@ -13033,17 +13069,17 @@
       <c r="C555" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D555" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E555" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F555" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D555" s="5">
+        <v>1</v>
+      </c>
+      <c r="E555" s="5">
+        <v>1</v>
+      </c>
+      <c r="F555" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>128</v>
       </c>
@@ -13053,17 +13089,17 @@
       <c r="C556" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D556" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E556" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F556" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D556" s="5">
+        <v>17</v>
+      </c>
+      <c r="E556" s="5">
+        <v>17</v>
+      </c>
+      <c r="F556" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>128</v>
       </c>
@@ -13073,17 +13109,17 @@
       <c r="C557" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D557" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E557" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F557" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D557" s="5">
+        <v>6</v>
+      </c>
+      <c r="E557" s="5">
+        <v>6</v>
+      </c>
+      <c r="F557" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>128</v>
       </c>
@@ -13093,17 +13129,17 @@
       <c r="C558" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D558" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E558" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F558" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D558" s="5">
+        <v>34</v>
+      </c>
+      <c r="E558" s="5">
+        <v>34</v>
+      </c>
+      <c r="F558" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>128</v>
       </c>
@@ -13113,17 +13149,17 @@
       <c r="C559" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D559" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E559" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F559" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D559" s="5">
+        <v>1</v>
+      </c>
+      <c r="E559" s="5">
+        <v>0</v>
+      </c>
+      <c r="F559" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>128</v>
       </c>
@@ -13133,17 +13169,17 @@
       <c r="C560" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D560" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E560" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F560" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D560" s="5">
+        <v>1</v>
+      </c>
+      <c r="E560" s="5">
+        <v>0</v>
+      </c>
+      <c r="F560" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>128</v>
       </c>
@@ -13153,17 +13189,17 @@
       <c r="C561" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D561" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E561" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F561" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D561" s="5">
+        <v>6</v>
+      </c>
+      <c r="E561" s="5">
+        <v>6</v>
+      </c>
+      <c r="F561" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>129</v>
       </c>
@@ -13183,7 +13219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>129</v>
       </c>
@@ -13203,7 +13239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>129</v>
       </c>
@@ -13223,7 +13259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>129</v>
       </c>
@@ -13243,7 +13279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>129</v>
       </c>
@@ -13263,7 +13299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>129</v>
       </c>
@@ -13283,7 +13319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>129</v>
       </c>
@@ -13303,7 +13339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>129</v>
       </c>
@@ -13323,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>129</v>
       </c>
@@ -13343,7 +13379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>129</v>
       </c>
@@ -13363,7 +13399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>129</v>
       </c>
@@ -13383,7 +13419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>129</v>
       </c>
@@ -13403,7 +13439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>129</v>
       </c>
@@ -13423,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>129</v>
       </c>
@@ -13443,7 +13479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>130</v>
       </c>
@@ -13463,7 +13499,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>130</v>
       </c>
@@ -13473,17 +13509,17 @@
       <c r="C577" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D577" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E577" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F577" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D577" s="5">
+        <v>3</v>
+      </c>
+      <c r="E577" s="5">
+        <v>3</v>
+      </c>
+      <c r="F577" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>130</v>
       </c>
@@ -13503,7 +13539,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>130</v>
       </c>
@@ -13523,7 +13559,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>130</v>
       </c>
@@ -13543,7 +13579,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>130</v>
       </c>
@@ -13563,7 +13599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>130</v>
       </c>
@@ -13583,7 +13619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>130</v>
       </c>
@@ -13603,7 +13639,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>130</v>
       </c>
@@ -13623,7 +13659,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>130</v>
       </c>
@@ -13643,7 +13679,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>130</v>
       </c>
@@ -13663,7 +13699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>130</v>
       </c>
@@ -13683,7 +13719,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>130</v>
       </c>
@@ -13703,7 +13739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>130</v>
       </c>
@@ -13723,7 +13759,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>131</v>
       </c>
@@ -13743,7 +13779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>131</v>
       </c>
@@ -13763,7 +13799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>131</v>
       </c>
@@ -13783,7 +13819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>131</v>
       </c>
@@ -13803,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>131</v>
       </c>
@@ -13823,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>131</v>
       </c>
@@ -13843,7 +13879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>131</v>
       </c>
@@ -13863,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>131</v>
       </c>
@@ -13883,7 +13919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>131</v>
       </c>
@@ -13903,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>131</v>
       </c>
@@ -13923,7 +13959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>131</v>
       </c>
@@ -13943,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>131</v>
       </c>
@@ -13963,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>131</v>
       </c>
@@ -13983,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>131</v>
       </c>
@@ -14003,7 +14039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>132</v>
       </c>
@@ -14023,7 +14059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>132</v>
       </c>
@@ -14043,7 +14079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>132</v>
       </c>
@@ -14063,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>132</v>
       </c>
@@ -14083,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>132</v>
       </c>
@@ -14103,7 +14139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>132</v>
       </c>
@@ -14123,7 +14159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>132</v>
       </c>
@@ -14143,7 +14179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>132</v>
       </c>
@@ -14163,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>132</v>
       </c>
@@ -14183,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>132</v>
       </c>
@@ -14203,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>132</v>
       </c>
@@ -14223,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>132</v>
       </c>
@@ -14243,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>132</v>
       </c>
@@ -14263,7 +14299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>132</v>
       </c>
@@ -14283,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>133</v>
       </c>
@@ -14303,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>133</v>
       </c>
@@ -14323,7 +14359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>133</v>
       </c>
@@ -14343,7 +14379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>133</v>
       </c>
@@ -14363,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>133</v>
       </c>
@@ -14383,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>133</v>
       </c>
@@ -14403,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>133</v>
       </c>
@@ -14423,7 +14459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>133</v>
       </c>
@@ -14443,7 +14479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>133</v>
       </c>
@@ -14463,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>133</v>
       </c>
@@ -14483,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>133</v>
       </c>
@@ -14503,7 +14539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>133</v>
       </c>
@@ -14523,7 +14559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>133</v>
       </c>
@@ -14543,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>133</v>
       </c>
@@ -14563,7 +14599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>134</v>
       </c>
@@ -14583,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>134</v>
       </c>
@@ -14603,7 +14639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>134</v>
       </c>
@@ -14623,7 +14659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>134</v>
       </c>
@@ -14643,7 +14679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>134</v>
       </c>
@@ -14663,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>134</v>
       </c>
@@ -14683,7 +14719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>134</v>
       </c>
@@ -14703,7 +14739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>134</v>
       </c>
@@ -14723,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>134</v>
       </c>
@@ -14743,7 +14779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>134</v>
       </c>
@@ -14763,7 +14799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>134</v>
       </c>
@@ -14783,7 +14819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>134</v>
       </c>
@@ -14803,7 +14839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>134</v>
       </c>
@@ -14823,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>134</v>
       </c>
@@ -14843,7 +14879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>135</v>
       </c>
@@ -14863,7 +14899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>135</v>
       </c>
@@ -14883,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>135</v>
       </c>
@@ -14903,7 +14939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>135</v>
       </c>
@@ -14923,7 +14959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>135</v>
       </c>
@@ -14943,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>135</v>
       </c>
@@ -14963,7 +14999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>135</v>
       </c>
@@ -14983,7 +15019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>135</v>
       </c>
@@ -15003,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>135</v>
       </c>
@@ -15023,7 +15059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>135</v>
       </c>
@@ -15043,7 +15079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>135</v>
       </c>
@@ -15063,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>135</v>
       </c>
@@ -15083,7 +15119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>135</v>
       </c>
@@ -15103,7 +15139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>135</v>
       </c>
@@ -15123,7 +15159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>136</v>
       </c>
@@ -15143,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>136</v>
       </c>
@@ -15163,7 +15199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>136</v>
       </c>
@@ -15183,7 +15219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>136</v>
       </c>
@@ -15203,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>136</v>
       </c>
@@ -15223,7 +15259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>136</v>
       </c>
@@ -15243,7 +15279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>136</v>
       </c>
@@ -15263,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>136</v>
       </c>
@@ -15283,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>136</v>
       </c>
@@ -15303,7 +15339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>136</v>
       </c>
@@ -15323,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>136</v>
       </c>
@@ -15343,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>136</v>
       </c>
@@ -15363,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>136</v>
       </c>
@@ -15383,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>136</v>
       </c>
@@ -15403,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>137</v>
       </c>
@@ -15423,7 +15459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>137</v>
       </c>
@@ -15443,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>137</v>
       </c>
@@ -15463,7 +15499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>137</v>
       </c>
@@ -15483,7 +15519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>137</v>
       </c>
@@ -15503,7 +15539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>137</v>
       </c>
@@ -15523,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>137</v>
       </c>
@@ -15543,7 +15579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>137</v>
       </c>
@@ -15563,7 +15599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>137</v>
       </c>
@@ -15583,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>137</v>
       </c>
@@ -15603,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>137</v>
       </c>
@@ -15623,7 +15659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>137</v>
       </c>
@@ -15643,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>137</v>
       </c>
@@ -15663,7 +15699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>137</v>
       </c>
@@ -15683,7 +15719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>138</v>
       </c>
@@ -15703,7 +15739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>138</v>
       </c>
@@ -15723,7 +15759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>138</v>
       </c>
@@ -15743,7 +15779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>138</v>
       </c>
@@ -15763,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>138</v>
       </c>
@@ -15783,7 +15819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>138</v>
       </c>
@@ -15803,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>138</v>
       </c>
@@ -15823,7 +15859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>138</v>
       </c>
@@ -15843,7 +15879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>138</v>
       </c>
@@ -15863,7 +15899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>138</v>
       </c>
@@ -15883,7 +15919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>138</v>
       </c>
@@ -15903,7 +15939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>138</v>
       </c>
@@ -15923,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>138</v>
       </c>
@@ -15943,7 +15979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>138</v>
       </c>
@@ -15963,7 +15999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>139</v>
       </c>
@@ -15983,7 +16019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>139</v>
       </c>
@@ -16003,7 +16039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>139</v>
       </c>
@@ -16023,7 +16059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>139</v>
       </c>
@@ -16043,7 +16079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>139</v>
       </c>
@@ -16063,7 +16099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>139</v>
       </c>
@@ -16083,7 +16119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>139</v>
       </c>
@@ -16103,7 +16139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>139</v>
       </c>
@@ -16123,7 +16159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>139</v>
       </c>
@@ -16143,7 +16179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>139</v>
       </c>
@@ -16163,7 +16199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>139</v>
       </c>
@@ -16183,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>139</v>
       </c>
@@ -16203,7 +16239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>139</v>
       </c>
@@ -16223,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>139</v>
       </c>
@@ -16243,7 +16279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>140</v>
       </c>
@@ -16263,7 +16299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>140</v>
       </c>
@@ -16283,7 +16319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>140</v>
       </c>
@@ -16303,7 +16339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>140</v>
       </c>
@@ -16323,7 +16359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>140</v>
       </c>
@@ -16343,7 +16379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>140</v>
       </c>
@@ -16363,7 +16399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>140</v>
       </c>
@@ -16383,7 +16419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>140</v>
       </c>
@@ -16403,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>140</v>
       </c>
@@ -16423,7 +16459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>140</v>
       </c>
@@ -16443,7 +16479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>140</v>
       </c>
@@ -16463,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>140</v>
       </c>
@@ -16483,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>140</v>
       </c>
@@ -16503,7 +16539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>140</v>
       </c>
@@ -16523,7 +16559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>141</v>
       </c>
@@ -16543,7 +16579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>141</v>
       </c>
@@ -16563,7 +16599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>141</v>
       </c>
@@ -16583,7 +16619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>141</v>
       </c>
@@ -16603,7 +16639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>141</v>
       </c>
@@ -16623,7 +16659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>141</v>
       </c>
@@ -16643,7 +16679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>141</v>
       </c>
@@ -16663,7 +16699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>141</v>
       </c>
@@ -16683,7 +16719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>141</v>
       </c>
@@ -16703,7 +16739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>141</v>
       </c>
@@ -16723,7 +16759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>141</v>
       </c>
@@ -16743,7 +16779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>141</v>
       </c>
@@ -16763,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>141</v>
       </c>
@@ -16783,7 +16819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>141</v>
       </c>
@@ -16803,7 +16839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>142</v>
       </c>
@@ -16823,7 +16859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>142</v>
       </c>
@@ -16843,7 +16879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>142</v>
       </c>
@@ -16863,7 +16899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>142</v>
       </c>
@@ -16883,7 +16919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>142</v>
       </c>
@@ -16903,7 +16939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>142</v>
       </c>
@@ -16923,7 +16959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>142</v>
       </c>
@@ -16943,7 +16979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>142</v>
       </c>
@@ -16963,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>142</v>
       </c>
@@ -16983,7 +17019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>142</v>
       </c>
@@ -17003,7 +17039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>142</v>
       </c>
@@ -17023,7 +17059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>142</v>
       </c>
@@ -17043,7 +17079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>142</v>
       </c>
@@ -17063,7 +17099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>142</v>
       </c>
@@ -17083,7 +17119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>143</v>
       </c>
@@ -17103,7 +17139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>143</v>
       </c>
@@ -17123,7 +17159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>143</v>
       </c>
@@ -17143,7 +17179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>143</v>
       </c>
@@ -17163,7 +17199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>143</v>
       </c>
@@ -17183,7 +17219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>143</v>
       </c>
@@ -17203,7 +17239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>143</v>
       </c>
@@ -17223,7 +17259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>143</v>
       </c>
@@ -17243,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>143</v>
       </c>
@@ -17263,7 +17299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>143</v>
       </c>
@@ -17283,7 +17319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>143</v>
       </c>
@@ -17303,7 +17339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>143</v>
       </c>
@@ -17323,7 +17359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>143</v>
       </c>
@@ -17343,7 +17379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>143</v>
       </c>
@@ -17363,7 +17399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
         <v>144</v>
       </c>
@@ -17383,7 +17419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>144</v>
       </c>
@@ -17403,7 +17439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
         <v>144</v>
       </c>
@@ -17423,7 +17459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>144</v>
       </c>
@@ -17443,7 +17479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
         <v>144</v>
       </c>
@@ -17463,7 +17499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
         <v>144</v>
       </c>
@@ -17483,7 +17519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
         <v>144</v>
       </c>
@@ -17503,7 +17539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>144</v>
       </c>
@@ -17523,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
         <v>144</v>
       </c>
@@ -17543,7 +17579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
         <v>144</v>
       </c>
@@ -17563,7 +17599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
         <v>144</v>
       </c>
@@ -17583,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
         <v>144</v>
       </c>
@@ -17603,7 +17639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
         <v>144</v>
       </c>
@@ -17623,7 +17659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>144</v>
       </c>
@@ -17643,7 +17679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
         <v>145</v>
       </c>
@@ -17663,7 +17699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>145</v>
       </c>
@@ -17683,7 +17719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>145</v>
       </c>
@@ -17703,7 +17739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>145</v>
       </c>
@@ -17723,7 +17759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>145</v>
       </c>
@@ -17743,7 +17779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>145</v>
       </c>
@@ -17763,7 +17799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>145</v>
       </c>
@@ -17783,7 +17819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
         <v>145</v>
       </c>
@@ -17803,7 +17839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
         <v>145</v>
       </c>
@@ -17823,7 +17859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
         <v>145</v>
       </c>
@@ -17843,7 +17879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
         <v>145</v>
       </c>
@@ -17863,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
         <v>145</v>
       </c>
@@ -17883,7 +17919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
         <v>145</v>
       </c>
@@ -17903,7 +17939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
         <v>145</v>
       </c>
@@ -17923,7 +17959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
         <v>146</v>
       </c>
@@ -17943,7 +17979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>146</v>
       </c>
@@ -17963,7 +17999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>146</v>
       </c>
@@ -17983,7 +18019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>146</v>
       </c>
@@ -18003,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>146</v>
       </c>
@@ -18023,7 +18059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>146</v>
       </c>
@@ -18043,7 +18079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>146</v>
       </c>
@@ -18063,7 +18099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
         <v>146</v>
       </c>
@@ -18083,7 +18119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
         <v>146</v>
       </c>
@@ -18103,7 +18139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>146</v>
       </c>
@@ -18123,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
         <v>146</v>
       </c>
@@ -18143,7 +18179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>146</v>
       </c>
@@ -18163,7 +18199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>146</v>
       </c>
@@ -18183,7 +18219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
         <v>146</v>
       </c>
@@ -18203,7 +18239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
         <v>147</v>
       </c>
@@ -18223,7 +18259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>147</v>
       </c>
@@ -18243,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
         <v>147</v>
       </c>
@@ -18263,7 +18299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>147</v>
       </c>
@@ -18283,7 +18319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
         <v>147</v>
       </c>
@@ -18303,7 +18339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>147</v>
       </c>
@@ -18323,7 +18359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
         <v>147</v>
       </c>
@@ -18343,7 +18379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
         <v>147</v>
       </c>
@@ -18363,7 +18399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
         <v>147</v>
       </c>
@@ -18383,7 +18419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
         <v>147</v>
       </c>
@@ -18403,7 +18439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>147</v>
       </c>
@@ -18423,7 +18459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
         <v>147</v>
       </c>
@@ -18443,7 +18479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
         <v>147</v>
       </c>
@@ -18463,7 +18499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>147</v>
       </c>
@@ -18483,7 +18519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>148</v>
       </c>
@@ -18503,7 +18539,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
         <v>148</v>
       </c>
@@ -18523,7 +18559,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>148</v>
       </c>
@@ -18543,7 +18579,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>148</v>
       </c>
@@ -18553,9 +18589,6 @@
       <c r="C831" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D831" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="E831" s="5" t="s">
         <v>92</v>
       </c>
@@ -18563,7 +18596,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
         <v>148</v>
       </c>
@@ -18583,7 +18616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
         <v>148</v>
       </c>
@@ -18603,7 +18636,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
         <v>148</v>
       </c>
@@ -18613,9 +18646,6 @@
       <c r="C834" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D834" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="E834" s="5" t="s">
         <v>92</v>
       </c>
@@ -18623,7 +18653,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
         <v>148</v>
       </c>
@@ -18633,9 +18663,6 @@
       <c r="C835" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D835" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="E835" s="5" t="s">
         <v>92</v>
       </c>
@@ -18643,7 +18670,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
         <v>148</v>
       </c>
@@ -18653,17 +18680,8 @@
       <c r="C836" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D836" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E836" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F836" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
         <v>148</v>
       </c>
@@ -18673,17 +18691,8 @@
       <c r="C837" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D837" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E837" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F837" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
         <v>148</v>
       </c>
@@ -18693,9 +18702,6 @@
       <c r="C838" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D838" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="E838" s="5" t="s">
         <v>92</v>
       </c>
@@ -18703,7 +18709,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
         <v>148</v>
       </c>
@@ -18723,7 +18729,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
         <v>148</v>
       </c>
@@ -18733,9 +18739,6 @@
       <c r="C840" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D840" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="E840" s="5" t="s">
         <v>92</v>
       </c>
@@ -18743,7 +18746,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
         <v>148</v>
       </c>
@@ -18753,9 +18756,6 @@
       <c r="C841" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D841" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="E841" s="5" t="s">
         <v>92</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
         <v>149</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>149</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
         <v>149</v>
       </c>
@@ -18823,7 +18823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>149</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>149</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>149</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>149</v>
       </c>
@@ -18903,7 +18903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>149</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
         <v>149</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>149</v>
       </c>
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
         <v>149</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
         <v>149</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
         <v>149</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
         <v>149</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
         <v>150</v>
       </c>
@@ -19053,17 +19053,17 @@
       <c r="C856" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D856" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E856" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F856" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D856" s="5">
+        <v>3</v>
+      </c>
+      <c r="E856" s="5">
+        <v>1</v>
+      </c>
+      <c r="F856" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
         <v>150</v>
       </c>
@@ -19073,17 +19073,17 @@
       <c r="C857" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D857" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E857" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F857" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D857" s="5">
+        <v>5</v>
+      </c>
+      <c r="E857" s="5">
+        <v>1</v>
+      </c>
+      <c r="F857" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
         <v>150</v>
       </c>
@@ -19093,17 +19093,17 @@
       <c r="C858" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D858" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E858" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F858" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D858" s="5">
+        <v>5</v>
+      </c>
+      <c r="E858" s="5">
+        <v>1</v>
+      </c>
+      <c r="F858" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>150</v>
       </c>
@@ -19113,17 +19113,17 @@
       <c r="C859" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D859" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E859" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F859" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D859" s="5">
+        <v>0</v>
+      </c>
+      <c r="E859" s="5">
+        <v>0</v>
+      </c>
+      <c r="F859" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
         <v>150</v>
       </c>
@@ -19133,17 +19133,17 @@
       <c r="C860" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D860" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E860" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F860" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D860" s="5">
+        <v>30</v>
+      </c>
+      <c r="E860" s="5">
+        <v>25</v>
+      </c>
+      <c r="F860" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
         <v>150</v>
       </c>
@@ -19153,17 +19153,17 @@
       <c r="C861" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D861" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E861" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F861" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D861" s="5">
+        <v>5</v>
+      </c>
+      <c r="E861" s="5">
+        <v>4</v>
+      </c>
+      <c r="F861" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
         <v>150</v>
       </c>
@@ -19173,17 +19173,17 @@
       <c r="C862" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D862" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E862" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F862" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D862" s="5">
+        <v>3</v>
+      </c>
+      <c r="E862" s="5">
+        <v>1</v>
+      </c>
+      <c r="F862" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
         <v>150</v>
       </c>
@@ -19193,17 +19193,17 @@
       <c r="C863" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D863" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E863" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F863" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D863" s="5">
+        <v>0</v>
+      </c>
+      <c r="E863" s="5">
+        <v>0</v>
+      </c>
+      <c r="F863" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
         <v>150</v>
       </c>
@@ -19213,17 +19213,17 @@
       <c r="C864" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D864" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E864" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F864" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D864" s="5">
+        <v>7</v>
+      </c>
+      <c r="E864" s="5">
+        <v>2</v>
+      </c>
+      <c r="F864" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
         <v>150</v>
       </c>
@@ -19233,17 +19233,17 @@
       <c r="C865" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D865" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E865" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F865" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D865" s="5">
+        <v>3</v>
+      </c>
+      <c r="E865" s="5">
+        <v>1</v>
+      </c>
+      <c r="F865" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
         <v>150</v>
       </c>
@@ -19253,17 +19253,17 @@
       <c r="C866" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D866" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E866" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F866" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D866" s="5">
+        <v>1</v>
+      </c>
+      <c r="E866" s="5">
+        <v>1</v>
+      </c>
+      <c r="F866" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
         <v>150</v>
       </c>
@@ -19273,17 +19273,17 @@
       <c r="C867" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D867" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E867" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F867" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D867" s="5">
+        <v>0</v>
+      </c>
+      <c r="E867" s="5">
+        <v>0</v>
+      </c>
+      <c r="F867" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
         <v>150</v>
       </c>
@@ -19293,17 +19293,17 @@
       <c r="C868" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D868" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E868" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F868" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D868" s="5">
+        <v>0</v>
+      </c>
+      <c r="E868" s="5">
+        <v>0</v>
+      </c>
+      <c r="F868" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
         <v>150</v>
       </c>
@@ -19313,17 +19313,17 @@
       <c r="C869" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D869" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E869" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F869" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D869" s="5">
+        <v>1</v>
+      </c>
+      <c r="E869" s="5">
+        <v>1</v>
+      </c>
+      <c r="F869" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
         <v>151</v>
       </c>
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
         <v>151</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
         <v>151</v>
       </c>
@@ -19383,7 +19383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
         <v>151</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
         <v>151</v>
       </c>
@@ -19423,7 +19423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
         <v>151</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
         <v>151</v>
       </c>
@@ -19463,7 +19463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
         <v>151</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
         <v>151</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
         <v>151</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
         <v>151</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
         <v>151</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
         <v>151</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
         <v>151</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
         <v>152</v>
       </c>
@@ -19623,7 +19623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
         <v>152</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
         <v>152</v>
       </c>
@@ -19663,7 +19663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
         <v>152</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
         <v>152</v>
       </c>
@@ -19703,7 +19703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
         <v>152</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
         <v>152</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
         <v>152</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
         <v>152</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
         <v>152</v>
       </c>
@@ -19803,7 +19803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
         <v>152</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
         <v>152</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
         <v>152</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
         <v>152</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
         <v>153</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
         <v>153</v>
       </c>
@@ -19923,7 +19923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
         <v>153</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
         <v>153</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
         <v>153</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
         <v>153</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
         <v>153</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
         <v>153</v>
       </c>
@@ -20043,7 +20043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
         <v>153</v>
       </c>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
         <v>153</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
         <v>153</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
         <v>153</v>
       </c>
@@ -20123,7 +20123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
         <v>153</v>
       </c>
@@ -20143,7 +20143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
         <v>153</v>
       </c>
@@ -20164,6 +20164,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F911" xr:uid="{065FEC93-A3AD-46B9-A01F-DAA62B1F3C93}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Gaibandha"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -20172,8 +20179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A266ED70-C85B-4E53-9E41-FDB69C034ADD}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20183,6 +20190,8 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -20233,7 +20242,7 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="17">
         <v>31</v>
       </c>
       <c r="C2" s="2">
@@ -20274,7 +20283,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="17">
         <v>63.2</v>
       </c>
       <c r="C3" s="2">
@@ -20315,7 +20324,7 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="17">
         <v>25.7</v>
       </c>
       <c r="C4" s="2">
@@ -20356,7 +20365,7 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="17">
         <v>27.4</v>
       </c>
       <c r="C5" s="2">
@@ -20397,7 +20406,7 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="17">
         <v>15.5</v>
       </c>
       <c r="C6" s="2">
@@ -20438,7 +20447,7 @@
       <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="17">
         <v>27.2</v>
       </c>
       <c r="C7" s="2">
@@ -20479,7 +20488,7 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="17">
         <v>10.3</v>
       </c>
       <c r="C8" s="2">
@@ -20520,7 +20529,7 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="17">
         <v>29.3</v>
       </c>
       <c r="C9" s="2">
@@ -20561,7 +20570,7 @@
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="17">
         <v>39.6</v>
       </c>
       <c r="C10" s="2">
@@ -20602,7 +20611,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="17">
         <v>13.7</v>
       </c>
       <c r="C11" s="2">
@@ -20643,7 +20652,7 @@
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="17">
         <v>31.9</v>
       </c>
       <c r="C12" s="2">
@@ -20684,7 +20693,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="17">
         <v>16.600000000000001</v>
       </c>
       <c r="C13" s="2">
@@ -20725,7 +20734,7 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="17">
         <v>13.5</v>
       </c>
       <c r="C14" s="2">
@@ -20766,7 +20775,7 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="17">
         <v>10</v>
       </c>
       <c r="C15" s="2">
@@ -20807,7 +20816,7 @@
       <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="17">
         <v>64.3</v>
       </c>
       <c r="C16" s="2">
@@ -20848,7 +20857,7 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="17">
         <v>7.7</v>
       </c>
       <c r="C17" s="2">
@@ -20889,7 +20898,7 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="17">
         <v>8.1</v>
       </c>
       <c r="C18" s="2">
@@ -20930,7 +20939,7 @@
       <c r="A19" t="s">
         <v>53</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="17">
         <v>46.7</v>
       </c>
       <c r="C19" s="2">
@@ -20971,7 +20980,7 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="17">
         <v>6.9</v>
       </c>
       <c r="C20" s="2">
@@ -21012,7 +21021,7 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="17">
         <v>29.5</v>
       </c>
       <c r="C21" s="2">
@@ -21053,7 +21062,7 @@
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="17">
         <v>13.4</v>
       </c>
       <c r="C22" s="2">
@@ -21094,7 +21103,7 @@
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="17">
         <v>52.5</v>
       </c>
       <c r="C23" s="2">
@@ -21135,7 +21144,7 @@
       <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="17">
         <v>26.9</v>
       </c>
       <c r="C24" s="2">
@@ -21176,7 +21185,7 @@
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="17">
         <v>21.5</v>
       </c>
       <c r="C25" s="2">
@@ -21217,7 +21226,7 @@
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="17">
         <v>26.5</v>
       </c>
       <c r="C26" s="2">
@@ -21258,7 +21267,7 @@
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="17">
         <v>21.4</v>
       </c>
       <c r="C27" s="2">
@@ -21299,7 +21308,7 @@
       <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="17">
         <v>52.7</v>
       </c>
       <c r="C28" s="2">
@@ -21340,7 +21349,7 @@
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="17">
         <v>30.8</v>
       </c>
       <c r="C29" s="2">
@@ -21381,7 +21390,7 @@
       <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="17">
         <v>53.5</v>
       </c>
       <c r="C30" s="2">
@@ -21422,7 +21431,7 @@
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="17">
         <v>70.8</v>
       </c>
       <c r="C31" s="2">
@@ -21463,7 +21472,7 @@
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="17">
         <v>17.5</v>
       </c>
       <c r="C32" s="2">
@@ -21504,7 +21513,7 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="17">
         <v>32.5</v>
       </c>
       <c r="C33" s="2">
@@ -21545,7 +21554,7 @@
       <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="17">
         <v>42</v>
       </c>
       <c r="C34" s="2">
@@ -21586,7 +21595,7 @@
       <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="17">
         <v>3.7</v>
       </c>
       <c r="C35" s="2">
@@ -21627,7 +21636,7 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="17">
         <v>56.7</v>
       </c>
       <c r="C36" s="2">
@@ -21668,7 +21677,7 @@
       <c r="A37" t="s">
         <v>23</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="17">
         <v>30.7</v>
       </c>
       <c r="C37" s="2">
@@ -21709,7 +21718,7 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="17">
         <v>31.5</v>
       </c>
       <c r="C38" s="2">
@@ -21750,7 +21759,7 @@
       <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="17">
         <v>11</v>
       </c>
       <c r="C39" s="2">
@@ -21791,7 +21800,7 @@
       <c r="A40" t="s">
         <v>24</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="17">
         <v>3.1</v>
       </c>
       <c r="C40" s="2">
@@ -21832,7 +21841,7 @@
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="17">
         <v>22</v>
       </c>
       <c r="C41" s="2">
@@ -21873,7 +21882,7 @@
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="17">
         <v>32.200000000000003</v>
       </c>
       <c r="C42" s="2">
@@ -21914,7 +21923,7 @@
       <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="17">
         <v>16.8</v>
       </c>
       <c r="C43" s="2">
@@ -21955,7 +21964,7 @@
       <c r="A44" t="s">
         <v>25</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="17">
         <v>2.6</v>
       </c>
       <c r="C44" s="2">
@@ -21996,7 +22005,7 @@
       <c r="A45" t="s">
         <v>26</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="17">
         <v>10.5</v>
       </c>
       <c r="C45" s="2">
@@ -22037,7 +22046,7 @@
       <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="17">
         <v>24</v>
       </c>
       <c r="C46" s="2">
@@ -22078,7 +22087,7 @@
       <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="17">
         <v>34</v>
       </c>
       <c r="C47" s="2">
@@ -22119,7 +22128,7 @@
       <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="17">
         <v>32.299999999999997</v>
       </c>
       <c r="C48" s="2">
@@ -22160,7 +22169,7 @@
       <c r="A49" t="s">
         <v>15</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="17">
         <v>23.3</v>
       </c>
       <c r="C49" s="2">
@@ -22201,7 +22210,7 @@
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="17">
         <v>33</v>
       </c>
       <c r="C50" s="2">
@@ -22242,7 +22251,7 @@
       <c r="A51" t="s">
         <v>57</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="17">
         <v>26.3</v>
       </c>
       <c r="C51" s="2">
@@ -22283,7 +22292,7 @@
       <c r="A52" t="s">
         <v>4</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="17">
         <v>37.200000000000003</v>
       </c>
       <c r="C52" s="2">
@@ -22324,7 +22333,7 @@
       <c r="A53" t="s">
         <v>5</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="17">
         <v>32.200000000000003</v>
       </c>
       <c r="C53" s="2">
@@ -22365,7 +22374,7 @@
       <c r="A54" t="s">
         <v>27</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="17">
         <v>33.799999999999997</v>
       </c>
       <c r="C54" s="2">
@@ -22406,7 +22415,7 @@
       <c r="A55" t="s">
         <v>50</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="17">
         <v>20.100000000000001</v>
       </c>
       <c r="C55" s="2">
@@ -22447,7 +22456,7 @@
       <c r="A56" t="s">
         <v>16</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="17">
         <v>28.5</v>
       </c>
       <c r="C56" s="2">
@@ -22488,7 +22497,7 @@
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="17">
         <v>43.8</v>
       </c>
       <c r="C57" s="2">
@@ -22529,7 +22538,7 @@
       <c r="A58" t="s">
         <v>39</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="17">
         <v>18.600000000000001</v>
       </c>
       <c r="C58" s="2">
@@ -22570,7 +22579,7 @@
       <c r="A59" t="s">
         <v>28</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="17">
         <v>15.7</v>
       </c>
       <c r="C59" s="2">
@@ -22611,7 +22620,7 @@
       <c r="A60" t="s">
         <v>43</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="17">
         <v>41.3</v>
       </c>
       <c r="C60" s="2">
@@ -22652,7 +22661,7 @@
       <c r="A61" t="s">
         <v>51</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="17">
         <v>30.5</v>
       </c>
       <c r="C61" s="2">
@@ -22693,7 +22702,7 @@
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="17">
         <v>26</v>
       </c>
       <c r="C62" s="2">
@@ -22734,7 +22743,7 @@
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="17">
         <v>13</v>
       </c>
       <c r="C63" s="2">
@@ -22775,7 +22784,7 @@
       <c r="A64" t="s">
         <v>59</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="17">
         <v>23.4</v>
       </c>
       <c r="C64" s="2">
@@ -22816,7 +22825,7 @@
       <c r="A65" t="s">
         <v>29</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="17">
         <v>19</v>
       </c>
       <c r="C65" s="2">
